--- a/ela/templates/ELA_FORM_TMPL_A2.xlsx
+++ b/ela/templates/ELA_FORM_TMPL_A2.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="125">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">calculate</t>
   </si>
   <si>
-    <t xml:space="preserve">ela_form_id</t>
+    <t xml:space="preserve">form_id</t>
   </si>
   <si>
     <t xml:space="preserve">“{{ id }}”</t>
@@ -306,8 +306,8 @@
   </si>
   <si>
     <t xml:space="preserve">The following {{ assessment_count }} assessment(s) are included in this form
-{{ question_types[0] }}: {{ ela_assessment_ids[0]  }}
-{{ question_types[1] }}: {{ ela_assessment_ids[1]  }}</t>
+{{ question_types[0] }}: {{ assessment_ids[0]  }}
+{{ question_types[1] }}: {{ assessment_ids[1]  }}</t>
   </si>
   <si>
     <t xml:space="preserve">num_assessments</t>
@@ -370,7 +370,7 @@
     <t xml:space="preserve">{{ question_prompts[0] }}</t>
   </si>
   <si>
-    <t xml:space="preserve">ela_asssessment_id_1</t>
+    <t xml:space="preserve">assessment_id_1</t>
   </si>
   <si>
     <t xml:space="preserve">“{{ assessment_ids[0] }}”</t>
@@ -409,7 +409,7 @@
     <t xml:space="preserve">{{ question_prompts[1] }}</t>
   </si>
   <si>
-    <t xml:space="preserve">ela_asssessment_id_2</t>
+    <t xml:space="preserve">assessment_id_2</t>
   </si>
   <si>
     <t xml:space="preserve">“{{ assessment_ids[1] }}”</t>
@@ -557,9 +557,6 @@
   </si>
   <si>
     <t xml:space="preserve">form_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
   </si>
   <si>
     <t xml:space="preserve">version</t>
@@ -735,10 +732,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="2" sqref="B18 B24 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.14"/>
@@ -1165,10 +1162,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="A23" activeCellId="2" sqref="B18 B24 A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.63"/>
@@ -1501,10 +1498,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="2" sqref="B18 B24 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.13"/>
@@ -1516,13 +1513,13 @@
         <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1549,10 +1546,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1</v>
@@ -1578,34 +1575,34 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="2" sqref="B18 B24 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
